--- a/hist/stanice_kvalita_naf_20241113.xlsx
+++ b/hist/stanice_kvalita_naf_20241113.xlsx
@@ -659,7 +659,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2024-11-11T05:43:24Z</t>
+          <t>2024-11-13T05:11:33Z</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -2654,7 +2654,7 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>2024-11-12T04:28:00Z</t>
+          <t>2024-11-13T05:06:03Z</t>
         </is>
       </c>
       <c r="M39" t="n">
@@ -2825,7 +2825,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>2024-11-10T18:14:57Z</t>
+          <t>2024-11-13T05:06:03Z</t>
         </is>
       </c>
       <c r="M42" t="n">
@@ -5219,7 +5219,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>2024-11-11T09:20:29Z</t>
+          <t>2024-11-13T08:10:04Z</t>
         </is>
       </c>
       <c r="M84" t="n">
@@ -5443,7 +5443,7 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>2024-11-09T04:03:48Z</t>
+          <t>2024-11-13T04:55:23Z</t>
         </is>
       </c>
       <c r="M88" t="n">
@@ -5500,7 +5500,7 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>2024-11-10T18:14:57Z</t>
+          <t>2024-11-13T05:06:03Z</t>
         </is>
       </c>
       <c r="M89" t="n">
@@ -5952,7 +5952,7 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>2024-11-11T14:52:22Z</t>
+          <t>2024-11-13T07:28:57Z</t>
         </is>
       </c>
       <c r="M97" t="n">
@@ -9177,7 +9177,7 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>2024-11-08T05:39:15Z</t>
+          <t>2024-11-13T05:11:33Z</t>
         </is>
       </c>
       <c r="M154" t="n">
@@ -14137,7 +14137,7 @@
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>2024-11-10T07:41:05Z</t>
+          <t>2024-11-13T07:28:57Z</t>
         </is>
       </c>
       <c r="M242" t="n">
@@ -14707,7 +14707,7 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>2024-11-11T10:22:33Z</t>
+          <t>2024-11-13T04:32:33Z</t>
         </is>
       </c>
       <c r="M252" t="n">
@@ -14935,7 +14935,7 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>2024-11-10T09:45:12Z</t>
+          <t>2024-11-13T04:32:33Z</t>
         </is>
       </c>
       <c r="M256" t="n">
@@ -15049,7 +15049,7 @@
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>2024-11-12T04:56:00Z</t>
+          <t>2024-11-13T05:41:44Z</t>
         </is>
       </c>
       <c r="M258" t="n">
@@ -15391,7 +15391,7 @@
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>2024-11-11T10:55:58Z</t>
+          <t>2024-11-13T05:41:44Z</t>
         </is>
       </c>
       <c r="M264" t="n">
